--- a/ePICreator/Remsima.xlsx
+++ b/ePICreator/Remsima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8902FBE-DD1D-D34A-B631-999A85CDBB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531EDE55-E856-9844-9F41-46D508D28AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -349,12 +349,6 @@
   </si>
   <si>
     <t>100000072062</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>European Union</t>
   </si>
   <si>
     <t>100000072084</t>
@@ -1041,6 +1035,12 @@
   </si>
   <si>
     <t>EU/1/13/853/001|0xF79CABF272B6A7EEF104DDDA44E82718</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1594,10 +1594,10 @@
     <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>25</v>
@@ -1615,13 +1615,13 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="L2">
         <v>1062</v>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
@@ -1649,16 +1649,16 @@
         <v>28</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1737,11 +1737,9 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>115</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C2" s="26"/>
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1749,32 +1747,32 @@
         <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -1834,10 +1832,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1850,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1901,10 +1899,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="12"/>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>31</v>
@@ -1913,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
@@ -1922,10 +1920,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2025,10 +2023,10 @@
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -2041,10 +2039,10 @@
         <v>37</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -2134,10 +2132,10 @@
     <row r="2" spans="1:13" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2164,10 +2162,10 @@
     <row r="3" spans="1:13" ht="18">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2184,10 +2182,10 @@
     <row r="4" spans="1:13" ht="18">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2204,10 +2202,10 @@
     <row r="5" spans="1:13" ht="31">
       <c r="A5" s="1"/>
       <c r="B5" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2224,10 +2222,10 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -2286,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2370,34 +2368,34 @@
     <row r="2" spans="1:19" ht="19">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="J2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="K2" s="11" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>87</v>
@@ -2409,7 +2407,7 @@
         <v>58</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2537,22 +2535,22 @@
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>139</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>141</v>
       </c>
       <c r="H2" s="21">
         <v>200000002158</v>
@@ -2628,28 +2626,28 @@
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>139</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>141</v>
       </c>
       <c r="H2" s="21">
         <v>200000002158</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J2" s="21">
         <v>100000073611</v>
@@ -2767,16 +2765,16 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -2785,13 +2783,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I2" s="9">
         <v>654321</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K2" s="2">
         <v>100000073504</v>
@@ -2800,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N2" s="14">
         <v>200000003529</v>

--- a/ePICreator/Remsima.xlsx
+++ b/ePICreator/Remsima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531EDE55-E856-9844-9F41-46D508D28AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D759FF-2622-214D-AF6D-A753202DB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -1041,6 +1041,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2284,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2335,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="K1" t="s">
         <v>86</v>

--- a/ePICreator/Remsima.xlsx
+++ b/ePICreator/Remsima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D759FF-2622-214D-AF6D-A753202DB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5306E-2EB9-5C40-AFE6-95DD6A8B68A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -1240,9 +1240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1280,7 +1280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1386,7 +1386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1528,7 +1528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1827,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1839,6 +1839,9 @@
       </c>
       <c r="D2" t="s">
         <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
